--- a/postal code.xlsx
+++ b/postal code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romeo\IH-Labs\midway_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0220A9-C357-4CC3-8118-124DB1F6DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1921601-79FC-431F-9BE4-2FCD8ADDA8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="6024" windowWidth="23256" windowHeight="12576" xr2:uid="{BC3B1DCA-5E7E-496E-882C-A67052FA890F}"/>
   </bookViews>
@@ -159,6 +159,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DD8ADF0-B2C9-4A70-BDD0-DA9AF196793A}" name="Table1" displayName="Table1" ref="A1:B22" totalsRowShown="0">
   <autoFilter ref="A1:B22" xr:uid="{4DD8ADF0-B2C9-4A70-BDD0-DA9AF196793A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AA087B3F-C60C-4027-AE24-58EDDE13D7E3}" name="district"/>
     <tableColumn id="2" xr3:uid="{35B7C1F4-5E90-4F0C-8537-EC3023A946AB}" name="postcode"/>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFD7AD6-0D6D-4D86-995B-F4C179C961B9}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,7 @@
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,172 +489,256 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>28005</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'arganzuela', 28005,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>28042</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'barajas', 28042,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>28025</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'carabanchel', 28025,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>28000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>28011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>28020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'centro', 28000,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>28005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28036</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'chamartín', 28036,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>28009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28010</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'chamberí', 28010,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>28010</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28027</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'ciudad lineal', 28027,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
         <v>28048</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'fuencarral-el pardo', 28048,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>28013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28004</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'hortaleza', 28004,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>28004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28047</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'latina', 28047,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>28047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28011</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'moncloa-aravaca', 28011,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>28025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28030</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'moratalaz', 28030,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
         <v>28053</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'puente de vallecas', 28053,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>28009</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'retiro', 28009,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>28020</v>
+      </c>
+      <c r="D16" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'salamanca', 28020,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>28022</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>28036</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>28027</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'san blas-canillejas', 28022,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>28013</v>
+      </c>
+      <c r="D18" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'tetuán', 28013,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>28026</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>28030</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'usera', 28026,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>28052</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'vicálvaro', 28052,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>28031</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'villa de vallecas', 28031,data['postal_code'])</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>28021</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>28052</v>
+      <c r="D22" t="str">
+        <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
+        <v>data['postal_code'] = np.where(data['district'] == 'villaverde', 28021,data['postal_code'])</v>
       </c>
     </row>
   </sheetData>

--- a/postal code.xlsx
+++ b/postal code.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romeo\IH-Labs\midway_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1921601-79FC-431F-9BE4-2FCD8ADDA8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7495B119-2E8C-42DC-9A10-9F9D2F4EDA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="6024" windowWidth="23256" windowHeight="12576" xr2:uid="{BC3B1DCA-5E7E-496E-882C-A67052FA890F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>district</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>villa de vallecas</t>
+  </si>
+  <si>
+    <t>Pop dist</t>
+  </si>
+  <si>
+    <t>post code</t>
   </si>
 </sst>
 </file>
@@ -470,7 +477,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,11 +537,11 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28000</v>
+        <v>28012</v>
       </c>
       <c r="D5" t="str">
         <f>"data['postal_code'] = np.where(data['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",data['postal_code'])"</f>
-        <v>data['postal_code'] = np.where(data['district'] == 'centro', 28000,data['postal_code'])</v>
+        <v>data['postal_code'] = np.where(data['district'] == 'centro', 28012,data['postal_code'])</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,4 +755,304 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77C67A6-FB97-4987-AB9F-D3951D60659E}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>VLOOKUP(A2,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28012</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'arganzuela', 28005,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>VLOOKUP(A3,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28011</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'barajas', 28042,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>VLOOKUP(A4,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28020</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'carabanchel', 28025,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f>VLOOKUP(A5,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28005</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'centro', 28012,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f>VLOOKUP(A6,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28009</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'chamartín', 28036,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>VLOOKUP(A7,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28010</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'chamberí', 28010,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <f>VLOOKUP(A8,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28048</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'ciudad lineal', 28027,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f>VLOOKUP(A9,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28013</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'fuencarral-el pardo', 28048,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>VLOOKUP(A10,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28004</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'hortaleza', 28004,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f>VLOOKUP(A11,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28047</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'latina', 28047,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f>VLOOKUP(A12,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28025</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'moncloa-aravaca', 28011,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <f>VLOOKUP(A13,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28053</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'moratalaz', 28030,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <f>VLOOKUP(A14,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28022</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'puente de vallecas', 28053,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f>VLOOKUP(A15,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28036</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'retiro', 28009,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <f>VLOOKUP(A16,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28027</v>
+      </c>
+      <c r="D16" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'salamanca', 28020,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>VLOOKUP(A17,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28026</v>
+      </c>
+      <c r="D17" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'san blas-canillejas', 28022,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f>VLOOKUP(A18,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28030</v>
+      </c>
+      <c r="D18" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'tetuán', 28013,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <f>VLOOKUP(A19,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28031</v>
+      </c>
+      <c r="D19" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'usera', 28026,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <f>VLOOKUP(A20,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28021</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'vicálvaro', 28052,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f>VLOOKUP(A21,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28042</v>
+      </c>
+      <c r="D21" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'villa de vallecas', 28031,bikes['postal_code'])</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <f>VLOOKUP(A22,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <v>28052</v>
+      </c>
+      <c r="D22" t="str">
+        <f>"bikes['postal_code'] = np.where(bikes['district'] == '"&amp;Table1[[#This Row],[district]]&amp;"', "&amp;Table1[[#This Row],[postcode]]&amp;",bikes['postal_code'])"</f>
+        <v>bikes['postal_code'] = np.where(bikes['district'] == 'villaverde', 28021,bikes['postal_code'])</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>